--- a/jwang/htb/ieee14_htb.xlsx
+++ b/jwang/htb/ieee14_htb.xlsx
@@ -4,17 +4,16 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
-    <sheet name="PQ" sheetId="2" r:id="rId2"/>
-    <sheet name="PV" sheetId="3" r:id="rId3"/>
-    <sheet name="Slack" sheetId="4" r:id="rId4"/>
-    <sheet name="Shunt" sheetId="5" r:id="rId5"/>
-    <sheet name="Line" sheetId="6" r:id="rId6"/>
-    <sheet name="Area" sheetId="7" r:id="rId7"/>
-    <sheet name="GENROU" sheetId="8" r:id="rId8"/>
-    <sheet name="TGOV1" sheetId="9" r:id="rId9"/>
-    <sheet name="EXST1" sheetId="10" r:id="rId10"/>
-    <sheet name="ESST3A" sheetId="11" r:id="rId11"/>
-    <sheet name="BusFreq" sheetId="12" r:id="rId12"/>
+    <sheet name="Toggler" sheetId="2" r:id="rId2"/>
+    <sheet name="PQ" sheetId="3" r:id="rId3"/>
+    <sheet name="PV" sheetId="4" r:id="rId4"/>
+    <sheet name="Slack" sheetId="5" r:id="rId5"/>
+    <sheet name="Shunt" sheetId="6" r:id="rId6"/>
+    <sheet name="Line" sheetId="7" r:id="rId7"/>
+    <sheet name="Area" sheetId="8" r:id="rId8"/>
+    <sheet name="GENCLS" sheetId="9" r:id="rId9"/>
+    <sheet name="TGOV1" sheetId="10" r:id="rId10"/>
+    <sheet name="BusFreq" sheetId="11" r:id="rId11"/>
   </sheets>
 </workbook>
 </file>
@@ -1060,7 +1059,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1082,40 +1081,31 @@
         <v>syn</v>
       </c>
       <c r="F1" t="str">
-        <v>TR</v>
+        <v>Tn</v>
       </c>
       <c r="G1" t="str">
-        <v>VIMAX</v>
+        <v>wref0</v>
       </c>
       <c r="H1" t="str">
-        <v>VIMIN</v>
+        <v>R</v>
       </c>
       <c r="I1" t="str">
-        <v>TC</v>
+        <v>VMAX</v>
       </c>
       <c r="J1" t="str">
-        <v>TB</v>
+        <v>VMIN</v>
       </c>
       <c r="K1" t="str">
-        <v>KA</v>
+        <v>T1</v>
       </c>
       <c r="L1" t="str">
-        <v>TA</v>
+        <v>T2</v>
       </c>
       <c r="M1" t="str">
-        <v>VRMAX</v>
+        <v>T3</v>
       </c>
       <c r="N1" t="str">
-        <v>VRMIN</v>
-      </c>
-      <c r="O1" t="str">
-        <v>KC</v>
-      </c>
-      <c r="P1" t="str">
-        <v>KF</v>
-      </c>
-      <c r="Q1" t="str">
-        <v>TF</v>
+        <v>Dt</v>
       </c>
     </row>
     <row r="2">
@@ -1123,476 +1113,214 @@
         <v>0</v>
       </c>
       <c r="B2" t="str">
-        <v>EXST1_1</v>
+        <v>TGOV1_1</v>
       </c>
       <c r="C2" t="str">
         <v>1</v>
       </c>
       <c r="D2" t="str">
-        <v>EXST1_1</v>
+        <v>TGOV1_1</v>
       </c>
       <c r="E2" t="str">
+        <v>GENROU_1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>1</v>
+      </c>
+      <c r="H2" t="str">
+        <v>0.05</v>
+      </c>
+      <c r="I2" t="str">
+        <v>1.05</v>
+      </c>
+      <c r="J2" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="K2" t="str">
+        <v>0.05</v>
+      </c>
+      <c r="L2" t="str">
+        <v>1</v>
+      </c>
+      <c r="M2" t="str">
+        <v>2.1</v>
+      </c>
+      <c r="N2" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>1</v>
+      </c>
+      <c r="B3" t="str">
+        <v>TGOV1_2</v>
+      </c>
+      <c r="C3" t="str">
+        <v>1</v>
+      </c>
+      <c r="D3" t="str">
+        <v>TGOV1_2</v>
+      </c>
+      <c r="E3" t="str">
         <v>GENROU_2</v>
       </c>
-      <c r="F2" t="str">
-        <v>0.02</v>
-      </c>
-      <c r="G2" t="str">
-        <v>99</v>
-      </c>
-      <c r="H2" t="str">
-        <v>-99</v>
-      </c>
-      <c r="I2" t="str">
-        <v>0</v>
-      </c>
-      <c r="J2" t="str">
-        <v>0.02</v>
-      </c>
-      <c r="K2" t="str">
-        <v>50</v>
-      </c>
-      <c r="L2" t="str">
-        <v>0.02</v>
-      </c>
-      <c r="M2" t="str">
-        <v>9999</v>
-      </c>
-      <c r="N2" t="str">
-        <v>-9999</v>
-      </c>
-      <c r="O2" t="str">
-        <v>0</v>
-      </c>
-      <c r="P2" t="str">
-        <v>0.01</v>
-      </c>
-      <c r="Q2" t="str">
-        <v>1</v>
+      <c r="G3" t="str">
+        <v>1</v>
+      </c>
+      <c r="H3" t="str">
+        <v>0.05</v>
+      </c>
+      <c r="I3" t="str">
+        <v>1.2</v>
+      </c>
+      <c r="J3" t="str">
+        <v>0</v>
+      </c>
+      <c r="K3" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="L3" t="str">
+        <v>1</v>
+      </c>
+      <c r="M3" t="str">
+        <v>2.1</v>
+      </c>
+      <c r="N3" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>2</v>
+      </c>
+      <c r="B4" t="str">
+        <v>TGOV1_3</v>
+      </c>
+      <c r="C4" t="str">
+        <v>1</v>
+      </c>
+      <c r="D4" t="str">
+        <v>TGOV1_3</v>
+      </c>
+      <c r="E4" t="str">
+        <v>GENROU_3</v>
+      </c>
+      <c r="G4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H4" t="str">
+        <v>0.05</v>
+      </c>
+      <c r="I4" t="str">
+        <v>1.2</v>
+      </c>
+      <c r="J4" t="str">
+        <v>0</v>
+      </c>
+      <c r="K4" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="L4" t="str">
+        <v>1</v>
+      </c>
+      <c r="M4" t="str">
+        <v>2.1</v>
+      </c>
+      <c r="N4" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>3</v>
+      </c>
+      <c r="B5" t="str">
+        <v>TGOV1_4</v>
+      </c>
+      <c r="C5" t="str">
+        <v>1</v>
+      </c>
+      <c r="D5" t="str">
+        <v>TGOV1_4</v>
+      </c>
+      <c r="E5" t="str">
+        <v>GENROU_4</v>
+      </c>
+      <c r="G5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H5" t="str">
+        <v>0.05</v>
+      </c>
+      <c r="I5" t="str">
+        <v>1.05</v>
+      </c>
+      <c r="J5" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="K5" t="str">
+        <v>0.05</v>
+      </c>
+      <c r="L5" t="str">
+        <v>1</v>
+      </c>
+      <c r="M5" t="str">
+        <v>2.1</v>
+      </c>
+      <c r="N5" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>4</v>
+      </c>
+      <c r="B6" t="str">
+        <v>TGOV1_5</v>
+      </c>
+      <c r="C6" t="str">
+        <v>1</v>
+      </c>
+      <c r="D6" t="str">
+        <v>TGOV1_5</v>
+      </c>
+      <c r="E6" t="str">
+        <v>GENROU_5</v>
+      </c>
+      <c r="G6" t="str">
+        <v>1</v>
+      </c>
+      <c r="H6" t="str">
+        <v>0.05</v>
+      </c>
+      <c r="I6" t="str">
+        <v>1.05</v>
+      </c>
+      <c r="J6" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="K6" t="str">
+        <v>0.05</v>
+      </c>
+      <c r="L6" t="str">
+        <v>1</v>
+      </c>
+      <c r="M6" t="str">
+        <v>2.1</v>
+      </c>
+      <c r="N6" t="str">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Q2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N6"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>uid</v>
-      </c>
-      <c r="B1" t="str">
-        <v>idx</v>
-      </c>
-      <c r="C1" t="str">
-        <v>u</v>
-      </c>
-      <c r="D1" t="str">
-        <v>name</v>
-      </c>
-      <c r="E1" t="str">
-        <v>syn</v>
-      </c>
-      <c r="F1" t="str">
-        <v>TR</v>
-      </c>
-      <c r="G1" t="str">
-        <v>VIMAX</v>
-      </c>
-      <c r="H1" t="str">
-        <v>VIMIN</v>
-      </c>
-      <c r="I1" t="str">
-        <v>KM</v>
-      </c>
-      <c r="J1" t="str">
-        <v>TC</v>
-      </c>
-      <c r="K1" t="str">
-        <v>TB</v>
-      </c>
-      <c r="L1" t="str">
-        <v>KA</v>
-      </c>
-      <c r="M1" t="str">
-        <v>TA</v>
-      </c>
-      <c r="N1" t="str">
-        <v>VRMAX</v>
-      </c>
-      <c r="O1" t="str">
-        <v>VRMIN</v>
-      </c>
-      <c r="P1" t="str">
-        <v>KG</v>
-      </c>
-      <c r="Q1" t="str">
-        <v>KP</v>
-      </c>
-      <c r="R1" t="str">
-        <v>KI</v>
-      </c>
-      <c r="S1" t="str">
-        <v>VBMAX</v>
-      </c>
-      <c r="T1" t="str">
-        <v>KC</v>
-      </c>
-      <c r="U1" t="str">
-        <v>XL</v>
-      </c>
-      <c r="V1" t="str">
-        <v>VGMAX</v>
-      </c>
-      <c r="W1" t="str">
-        <v>THETAP</v>
-      </c>
-      <c r="X1" t="str">
-        <v>TM</v>
-      </c>
-      <c r="Y1" t="str">
-        <v>VMMAX</v>
-      </c>
-      <c r="Z1" t="str">
-        <v>VMMIN</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>0</v>
-      </c>
-      <c r="B2" t="str">
-        <v>ESST3A_2</v>
-      </c>
-      <c r="C2" t="str">
-        <v>1</v>
-      </c>
-      <c r="D2" t="str">
-        <v>ESST3A_2</v>
-      </c>
-      <c r="E2" t="str">
-        <v>GENROU_1</v>
-      </c>
-      <c r="F2" t="str">
-        <v>0.02</v>
-      </c>
-      <c r="G2" t="str">
-        <v>0.2</v>
-      </c>
-      <c r="H2" t="str">
-        <v>-0.2</v>
-      </c>
-      <c r="I2" t="str">
-        <v>8</v>
-      </c>
-      <c r="J2" t="str">
-        <v>1</v>
-      </c>
-      <c r="K2" t="str">
-        <v>5</v>
-      </c>
-      <c r="L2" t="str">
-        <v>20</v>
-      </c>
-      <c r="M2" t="str">
-        <v>0</v>
-      </c>
-      <c r="N2" t="str">
-        <v>99</v>
-      </c>
-      <c r="O2" t="str">
-        <v>-99</v>
-      </c>
-      <c r="P2" t="str">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="str">
-        <v>3.67</v>
-      </c>
-      <c r="R2" t="str">
-        <v>0.435</v>
-      </c>
-      <c r="S2" t="str">
-        <v>5.48</v>
-      </c>
-      <c r="T2" t="str">
-        <v>0.01</v>
-      </c>
-      <c r="U2" t="str">
-        <v>0.0098</v>
-      </c>
-      <c r="V2" t="str">
-        <v>3.86</v>
-      </c>
-      <c r="W2" t="str">
-        <v>3.33</v>
-      </c>
-      <c r="X2" t="str">
-        <v>0.4</v>
-      </c>
-      <c r="Y2" t="str">
-        <v>99</v>
-      </c>
-      <c r="Z2" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>1</v>
-      </c>
-      <c r="B3" t="str">
-        <v>ESST3A_3</v>
-      </c>
-      <c r="C3" t="str">
-        <v>1</v>
-      </c>
-      <c r="D3" t="str">
-        <v>ESST3A_3</v>
-      </c>
-      <c r="E3" t="str">
-        <v>GENROU_3</v>
-      </c>
-      <c r="F3" t="str">
-        <v>0.02</v>
-      </c>
-      <c r="G3" t="str">
-        <v>0.2</v>
-      </c>
-      <c r="H3" t="str">
-        <v>-0.2</v>
-      </c>
-      <c r="I3" t="str">
-        <v>8</v>
-      </c>
-      <c r="J3" t="str">
-        <v>1</v>
-      </c>
-      <c r="K3" t="str">
-        <v>5</v>
-      </c>
-      <c r="L3" t="str">
-        <v>20</v>
-      </c>
-      <c r="M3" t="str">
-        <v>0</v>
-      </c>
-      <c r="N3" t="str">
-        <v>99</v>
-      </c>
-      <c r="O3" t="str">
-        <v>-99</v>
-      </c>
-      <c r="P3" t="str">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="str">
-        <v>3.67</v>
-      </c>
-      <c r="R3" t="str">
-        <v>0.435</v>
-      </c>
-      <c r="S3" t="str">
-        <v>5.48</v>
-      </c>
-      <c r="T3" t="str">
-        <v>0.01</v>
-      </c>
-      <c r="U3" t="str">
-        <v>0.0098</v>
-      </c>
-      <c r="V3" t="str">
-        <v>3.86</v>
-      </c>
-      <c r="W3" t="str">
-        <v>3.33</v>
-      </c>
-      <c r="X3" t="str">
-        <v>0.4</v>
-      </c>
-      <c r="Y3" t="str">
-        <v>99</v>
-      </c>
-      <c r="Z3" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>2</v>
-      </c>
-      <c r="B4" t="str">
-        <v>ESST3A_4</v>
-      </c>
-      <c r="C4" t="str">
-        <v>1</v>
-      </c>
-      <c r="D4" t="str">
-        <v>ESST3A_4</v>
-      </c>
-      <c r="E4" t="str">
-        <v>GENROU_4</v>
-      </c>
-      <c r="F4" t="str">
-        <v>0.02</v>
-      </c>
-      <c r="G4" t="str">
-        <v>0.2</v>
-      </c>
-      <c r="H4" t="str">
-        <v>-0.2</v>
-      </c>
-      <c r="I4" t="str">
-        <v>8</v>
-      </c>
-      <c r="J4" t="str">
-        <v>1</v>
-      </c>
-      <c r="K4" t="str">
-        <v>5</v>
-      </c>
-      <c r="L4" t="str">
-        <v>20</v>
-      </c>
-      <c r="M4" t="str">
-        <v>0</v>
-      </c>
-      <c r="N4" t="str">
-        <v>99</v>
-      </c>
-      <c r="O4" t="str">
-        <v>-99</v>
-      </c>
-      <c r="P4" t="str">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="str">
-        <v>3.67</v>
-      </c>
-      <c r="R4" t="str">
-        <v>0.435</v>
-      </c>
-      <c r="S4" t="str">
-        <v>5.48</v>
-      </c>
-      <c r="T4" t="str">
-        <v>0.01</v>
-      </c>
-      <c r="U4" t="str">
-        <v>0.0098</v>
-      </c>
-      <c r="V4" t="str">
-        <v>3.86</v>
-      </c>
-      <c r="W4" t="str">
-        <v>3.33</v>
-      </c>
-      <c r="X4" t="str">
-        <v>0.4</v>
-      </c>
-      <c r="Y4" t="str">
-        <v>99</v>
-      </c>
-      <c r="Z4" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>3</v>
-      </c>
-      <c r="B5" t="str">
-        <v>ESST3A_5</v>
-      </c>
-      <c r="C5" t="str">
-        <v>1</v>
-      </c>
-      <c r="D5" t="str">
-        <v>ESST3A_5</v>
-      </c>
-      <c r="E5" t="str">
-        <v>GENROU_5</v>
-      </c>
-      <c r="F5" t="str">
-        <v>0.02</v>
-      </c>
-      <c r="G5" t="str">
-        <v>0.2</v>
-      </c>
-      <c r="H5" t="str">
-        <v>-0.2</v>
-      </c>
-      <c r="I5" t="str">
-        <v>8</v>
-      </c>
-      <c r="J5" t="str">
-        <v>1</v>
-      </c>
-      <c r="K5" t="str">
-        <v>5</v>
-      </c>
-      <c r="L5" t="str">
-        <v>20</v>
-      </c>
-      <c r="M5" t="str">
-        <v>0</v>
-      </c>
-      <c r="N5" t="str">
-        <v>99</v>
-      </c>
-      <c r="O5" t="str">
-        <v>-99</v>
-      </c>
-      <c r="P5" t="str">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="str">
-        <v>3.67</v>
-      </c>
-      <c r="R5" t="str">
-        <v>0.435</v>
-      </c>
-      <c r="S5" t="str">
-        <v>5.48</v>
-      </c>
-      <c r="T5" t="str">
-        <v>0.01</v>
-      </c>
-      <c r="U5" t="str">
-        <v>0.0098</v>
-      </c>
-      <c r="V5" t="str">
-        <v>3.86</v>
-      </c>
-      <c r="W5" t="str">
-        <v>3.33</v>
-      </c>
-      <c r="X5" t="str">
-        <v>0.4</v>
-      </c>
-      <c r="Y5" t="str">
-        <v>99</v>
-      </c>
-      <c r="Z5" t="str">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Z5"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -1660,6 +1388,89 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>uid</v>
+      </c>
+      <c r="B1" t="str">
+        <v>idx</v>
+      </c>
+      <c r="C1" t="str">
+        <v>u</v>
+      </c>
+      <c r="D1" t="str">
+        <v>name</v>
+      </c>
+      <c r="E1" t="str">
+        <v>model</v>
+      </c>
+      <c r="F1" t="str">
+        <v>dev</v>
+      </c>
+      <c r="G1" t="str">
+        <v>t</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>0</v>
+      </c>
+      <c r="B2" t="str">
+        <v>0</v>
+      </c>
+      <c r="C2" t="str">
+        <v>1</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Toggler_1</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Line</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Line_1</v>
+      </c>
+      <c r="G2" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>1</v>
+      </c>
+      <c r="B3" t="str">
+        <v>1</v>
+      </c>
+      <c r="C3" t="str">
+        <v>1</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Toggler_2</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Line</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Line_1</v>
+      </c>
+      <c r="G3" t="str">
+        <v>5.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2092,7 +1903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S5"/>
   <sheetViews>
@@ -2389,7 +2200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T2"/>
   <sheetViews>
@@ -2524,7 +2335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -2634,7 +2445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X21"/>
   <sheetViews>
@@ -4022,7 +3833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -4078,9 +3889,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4143,33 +3954,6 @@
       <c r="S1" t="str">
         <v>S12</v>
       </c>
-      <c r="T1" t="str">
-        <v>xd</v>
-      </c>
-      <c r="U1" t="str">
-        <v>xq</v>
-      </c>
-      <c r="V1" t="str">
-        <v>xd2</v>
-      </c>
-      <c r="W1" t="str">
-        <v>xq1</v>
-      </c>
-      <c r="X1" t="str">
-        <v>xq2</v>
-      </c>
-      <c r="Y1" t="str">
-        <v>Td10</v>
-      </c>
-      <c r="Z1" t="str">
-        <v>Td20</v>
-      </c>
-      <c r="AA1" t="str">
-        <v>Tq10</v>
-      </c>
-      <c r="AB1" t="str">
-        <v>Tq20</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -4226,33 +4010,6 @@
       <c r="S2" t="str">
         <v>0.38</v>
       </c>
-      <c r="T2" t="str">
-        <v>1.8</v>
-      </c>
-      <c r="U2" t="str">
-        <v>1.75</v>
-      </c>
-      <c r="V2" t="str">
-        <v>0.23</v>
-      </c>
-      <c r="W2" t="str">
-        <v>0.8</v>
-      </c>
-      <c r="X2" t="str">
-        <v>0.23</v>
-      </c>
-      <c r="Y2" t="str">
-        <v>6.5</v>
-      </c>
-      <c r="Z2" t="str">
-        <v>0.06</v>
-      </c>
-      <c r="AA2" t="str">
-        <v>0.2</v>
-      </c>
-      <c r="AB2" t="str">
-        <v>0.05</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -4309,33 +4066,6 @@
       <c r="S3" t="str">
         <v>0.38</v>
       </c>
-      <c r="T3" t="str">
-        <v>1.8</v>
-      </c>
-      <c r="U3" t="str">
-        <v>1.75</v>
-      </c>
-      <c r="V3" t="str">
-        <v>0.28</v>
-      </c>
-      <c r="W3" t="str">
-        <v>0.8</v>
-      </c>
-      <c r="X3" t="str">
-        <v>0.28</v>
-      </c>
-      <c r="Y3" t="str">
-        <v>6.5</v>
-      </c>
-      <c r="Z3" t="str">
-        <v>0.06</v>
-      </c>
-      <c r="AA3" t="str">
-        <v>0.2</v>
-      </c>
-      <c r="AB3" t="str">
-        <v>0.05</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -4391,33 +4121,6 @@
       </c>
       <c r="S4" t="str">
         <v>0.38</v>
-      </c>
-      <c r="T4" t="str">
-        <v>1.8</v>
-      </c>
-      <c r="U4" t="str">
-        <v>1.75</v>
-      </c>
-      <c r="V4" t="str">
-        <v>0.34</v>
-      </c>
-      <c r="W4" t="str">
-        <v>0.8</v>
-      </c>
-      <c r="X4" t="str">
-        <v>0.34</v>
-      </c>
-      <c r="Y4" t="str">
-        <v>6.5</v>
-      </c>
-      <c r="Z4" t="str">
-        <v>0.06</v>
-      </c>
-      <c r="AA4" t="str">
-        <v>0.2</v>
-      </c>
-      <c r="AB4" t="str">
-        <v>0.05</v>
       </c>
     </row>
     <row r="5">
@@ -4475,33 +4178,6 @@
       <c r="S5" t="str">
         <v>0.38</v>
       </c>
-      <c r="T5" t="str">
-        <v>1.8</v>
-      </c>
-      <c r="U5" t="str">
-        <v>1.75</v>
-      </c>
-      <c r="V5" t="str">
-        <v>0.28</v>
-      </c>
-      <c r="W5" t="str">
-        <v>0.8</v>
-      </c>
-      <c r="X5" t="str">
-        <v>0.28</v>
-      </c>
-      <c r="Y5" t="str">
-        <v>6.5</v>
-      </c>
-      <c r="Z5" t="str">
-        <v>0.06</v>
-      </c>
-      <c r="AA5" t="str">
-        <v>0.2</v>
-      </c>
-      <c r="AB5" t="str">
-        <v>0.05</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -4558,300 +4234,10 @@
       <c r="S6" t="str">
         <v>0.38</v>
       </c>
-      <c r="T6" t="str">
-        <v>1.8</v>
-      </c>
-      <c r="U6" t="str">
-        <v>1.75</v>
-      </c>
-      <c r="V6" t="str">
-        <v>0.34</v>
-      </c>
-      <c r="W6" t="str">
-        <v>0.8</v>
-      </c>
-      <c r="X6" t="str">
-        <v>0.34</v>
-      </c>
-      <c r="Y6" t="str">
-        <v>6.5</v>
-      </c>
-      <c r="Z6" t="str">
-        <v>0.06</v>
-      </c>
-      <c r="AA6" t="str">
-        <v>0.2</v>
-      </c>
-      <c r="AB6" t="str">
-        <v>0.05</v>
-      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AB6"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>uid</v>
-      </c>
-      <c r="B1" t="str">
-        <v>idx</v>
-      </c>
-      <c r="C1" t="str">
-        <v>u</v>
-      </c>
-      <c r="D1" t="str">
-        <v>name</v>
-      </c>
-      <c r="E1" t="str">
-        <v>syn</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Tn</v>
-      </c>
-      <c r="G1" t="str">
-        <v>wref0</v>
-      </c>
-      <c r="H1" t="str">
-        <v>R</v>
-      </c>
-      <c r="I1" t="str">
-        <v>VMAX</v>
-      </c>
-      <c r="J1" t="str">
-        <v>VMIN</v>
-      </c>
-      <c r="K1" t="str">
-        <v>T1</v>
-      </c>
-      <c r="L1" t="str">
-        <v>T2</v>
-      </c>
-      <c r="M1" t="str">
-        <v>T3</v>
-      </c>
-      <c r="N1" t="str">
-        <v>Dt</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>0</v>
-      </c>
-      <c r="B2" t="str">
-        <v>TGOV1_1</v>
-      </c>
-      <c r="C2" t="str">
-        <v>1</v>
-      </c>
-      <c r="D2" t="str">
-        <v>TGOV1_1</v>
-      </c>
-      <c r="E2" t="str">
-        <v>GENROU_1</v>
-      </c>
-      <c r="G2" t="str">
-        <v>1</v>
-      </c>
-      <c r="H2" t="str">
-        <v>0.05</v>
-      </c>
-      <c r="I2" t="str">
-        <v>1.05</v>
-      </c>
-      <c r="J2" t="str">
-        <v>0.3</v>
-      </c>
-      <c r="K2" t="str">
-        <v>0.05</v>
-      </c>
-      <c r="L2" t="str">
-        <v>1</v>
-      </c>
-      <c r="M2" t="str">
-        <v>2.1</v>
-      </c>
-      <c r="N2" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>1</v>
-      </c>
-      <c r="B3" t="str">
-        <v>TGOV1_2</v>
-      </c>
-      <c r="C3" t="str">
-        <v>1</v>
-      </c>
-      <c r="D3" t="str">
-        <v>TGOV1_2</v>
-      </c>
-      <c r="E3" t="str">
-        <v>GENROU_2</v>
-      </c>
-      <c r="G3" t="str">
-        <v>1</v>
-      </c>
-      <c r="H3" t="str">
-        <v>0.05</v>
-      </c>
-      <c r="I3" t="str">
-        <v>1.2</v>
-      </c>
-      <c r="J3" t="str">
-        <v>0</v>
-      </c>
-      <c r="K3" t="str">
-        <v>0.1</v>
-      </c>
-      <c r="L3" t="str">
-        <v>1</v>
-      </c>
-      <c r="M3" t="str">
-        <v>2.1</v>
-      </c>
-      <c r="N3" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>2</v>
-      </c>
-      <c r="B4" t="str">
-        <v>TGOV1_3</v>
-      </c>
-      <c r="C4" t="str">
-        <v>1</v>
-      </c>
-      <c r="D4" t="str">
-        <v>TGOV1_3</v>
-      </c>
-      <c r="E4" t="str">
-        <v>GENROU_3</v>
-      </c>
-      <c r="G4" t="str">
-        <v>1</v>
-      </c>
-      <c r="H4" t="str">
-        <v>0.05</v>
-      </c>
-      <c r="I4" t="str">
-        <v>1.2</v>
-      </c>
-      <c r="J4" t="str">
-        <v>0</v>
-      </c>
-      <c r="K4" t="str">
-        <v>0.1</v>
-      </c>
-      <c r="L4" t="str">
-        <v>1</v>
-      </c>
-      <c r="M4" t="str">
-        <v>2.1</v>
-      </c>
-      <c r="N4" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>3</v>
-      </c>
-      <c r="B5" t="str">
-        <v>TGOV1_4</v>
-      </c>
-      <c r="C5" t="str">
-        <v>1</v>
-      </c>
-      <c r="D5" t="str">
-        <v>TGOV1_4</v>
-      </c>
-      <c r="E5" t="str">
-        <v>GENROU_4</v>
-      </c>
-      <c r="G5" t="str">
-        <v>1</v>
-      </c>
-      <c r="H5" t="str">
-        <v>0.05</v>
-      </c>
-      <c r="I5" t="str">
-        <v>1.05</v>
-      </c>
-      <c r="J5" t="str">
-        <v>0.3</v>
-      </c>
-      <c r="K5" t="str">
-        <v>0.05</v>
-      </c>
-      <c r="L5" t="str">
-        <v>1</v>
-      </c>
-      <c r="M5" t="str">
-        <v>2.1</v>
-      </c>
-      <c r="N5" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>4</v>
-      </c>
-      <c r="B6" t="str">
-        <v>TGOV1_5</v>
-      </c>
-      <c r="C6" t="str">
-        <v>1</v>
-      </c>
-      <c r="D6" t="str">
-        <v>TGOV1_5</v>
-      </c>
-      <c r="E6" t="str">
-        <v>GENROU_5</v>
-      </c>
-      <c r="G6" t="str">
-        <v>1</v>
-      </c>
-      <c r="H6" t="str">
-        <v>0.05</v>
-      </c>
-      <c r="I6" t="str">
-        <v>1.05</v>
-      </c>
-      <c r="J6" t="str">
-        <v>0.3</v>
-      </c>
-      <c r="K6" t="str">
-        <v>0.05</v>
-      </c>
-      <c r="L6" t="str">
-        <v>1</v>
-      </c>
-      <c r="M6" t="str">
-        <v>2.1</v>
-      </c>
-      <c r="N6" t="str">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:S6"/>
   </ignoredErrors>
 </worksheet>
 </file>